--- a/Summaries/E0/Tottenham_Ipswich_adv.xlsx
+++ b/Summaries/E0/Tottenham_Ipswich_adv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="382">
   <si>
     <t>Div</t>
   </si>
@@ -511,553 +511,559 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>2124</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>1655</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>1679</t>
-  </si>
-  <si>
-    <t>2087</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>1312</t>
-  </si>
-  <si>
-    <t>1737</t>
-  </si>
-  <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>405</t>
+    <t>238</t>
+  </si>
+  <si>
+    <t>2139</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1690</t>
+  </si>
+  <si>
+    <t>2102</t>
   </si>
   <si>
     <t>436</t>
   </si>
   <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>1778</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1538</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
     <t>519</t>
   </si>
   <si>
-    <t>815</t>
+    <t>611</t>
+  </si>
+  <si>
+    <t>818</t>
   </si>
   <si>
     <t>909</t>
   </si>
   <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>1527</t>
+    <t>1417</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>2082</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>Rodrigo Bentancur</t>
+  </si>
+  <si>
+    <t>Micky van de Ven</t>
+  </si>
+  <si>
+    <t>Omari Hutchinson</t>
+  </si>
+  <si>
+    <t>Sam Morsy</t>
+  </si>
+  <si>
+    <t>Dejan Kulusevski</t>
+  </si>
+  <si>
+    <t>Liam Delap</t>
+  </si>
+  <si>
+    <t>Kalvin Phillips</t>
+  </si>
+  <si>
+    <t>Yves Bissouma</t>
+  </si>
+  <si>
+    <t>Brennan Johnson</t>
+  </si>
+  <si>
+    <t>James Maddison</t>
+  </si>
+  <si>
+    <t>Pedro Porro</t>
+  </si>
+  <si>
+    <t>Destiny Udogie</t>
+  </si>
+  <si>
+    <t>Harry Clarke</t>
+  </si>
+  <si>
+    <t>Leif Davis</t>
+  </si>
+  <si>
+    <t>Ali Al Hamadi</t>
+  </si>
+  <si>
+    <t>Jack Taylor</t>
+  </si>
+  <si>
+    <t>Axel Tuanzebe</t>
+  </si>
+  <si>
+    <t>Pape Matar Sarr</t>
+  </si>
+  <si>
+    <t>Richarlison</t>
+  </si>
+  <si>
+    <t>Cristian Romero</t>
+  </si>
+  <si>
+    <t>Djed Spence</t>
+  </si>
+  <si>
+    <t>Guglielmo Vicario</t>
+  </si>
+  <si>
+    <t>Wes Burns</t>
+  </si>
+  <si>
+    <t>Jens Cajuste</t>
+  </si>
+  <si>
+    <t>Conor Chaplin</t>
+  </si>
+  <si>
+    <t>Jack Clarke</t>
+  </si>
+  <si>
+    <t>Jacob Greaves</t>
+  </si>
+  <si>
+    <t>George Hirst</t>
+  </si>
+  <si>
+    <t>Ben Johnson</t>
+  </si>
+  <si>
+    <t>Arijanet Muric</t>
+  </si>
+  <si>
+    <t>Dara O'Shea</t>
+  </si>
+  <si>
+    <t>Sammie Szmodics</t>
+  </si>
+  <si>
+    <t>Luke Woolfenden</t>
+  </si>
+  <si>
+    <t>Lucas Bergvall</t>
+  </si>
+  <si>
+    <t>Ben Davies</t>
+  </si>
+  <si>
+    <t>Radu Drăgușin</t>
+  </si>
+  <si>
+    <t>Archie Gray</t>
+  </si>
+  <si>
+    <t>Son Heung-min</t>
+  </si>
+  <si>
+    <t>Mikey Moore</t>
+  </si>
+  <si>
+    <t>Wilson Odobert</t>
+  </si>
+  <si>
+    <t>Dominic Solanke</t>
+  </si>
+  <si>
+    <t>Timo Werner</t>
+  </si>
+  <si>
+    <t>Cameron Burgess</t>
+  </si>
+  <si>
+    <t>George Edmundson</t>
+  </si>
+  <si>
+    <t>Marcus Harness</t>
+  </si>
+  <si>
+    <t>Massimo Luongo</t>
+  </si>
+  <si>
+    <t>Chiedozie Ogbene</t>
+  </si>
+  <si>
+    <t>Conor Townsend</t>
+  </si>
+  <si>
+    <t>Christian Walton</t>
+  </si>
+  <si>
+    <t>uy URU</t>
+  </si>
+  <si>
+    <t>nl NED</t>
+  </si>
+  <si>
+    <t>eng ENG</t>
+  </si>
+  <si>
+    <t>eg EGY</t>
+  </si>
+  <si>
+    <t>se SWE</t>
+  </si>
+  <si>
+    <t>ml MLI</t>
+  </si>
+  <si>
+    <t>wls WAL</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>it ITA</t>
+  </si>
+  <si>
+    <t>iq IRQ</t>
+  </si>
+  <si>
+    <t>ie IRL</t>
+  </si>
+  <si>
+    <t>cd COD</t>
+  </si>
+  <si>
+    <t>sn SEN</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>xk KVX</t>
+  </si>
+  <si>
+    <t>ro ROU</t>
+  </si>
+  <si>
+    <t>kr KOR</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>au AUS</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>DF,FW</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>eng Premier League</t>
+  </si>
+  <si>
+    <t>27-144</t>
+  </si>
+  <si>
+    <t>23-211</t>
+  </si>
+  <si>
+    <t>21-017</t>
+  </si>
+  <si>
+    <t>33-067</t>
+  </si>
+  <si>
+    <t>24-205</t>
+  </si>
+  <si>
+    <t>21-282</t>
+  </si>
+  <si>
+    <t>28-350</t>
+  </si>
+  <si>
+    <t>28-078</t>
+  </si>
+  <si>
+    <t>23-177</t>
+  </si>
+  <si>
+    <t>27-359</t>
+  </si>
+  <si>
+    <t>25-064</t>
+  </si>
+  <si>
+    <t>21-354</t>
+  </si>
+  <si>
+    <t>23-259</t>
+  </si>
+  <si>
+    <t>24-309</t>
+  </si>
+  <si>
+    <t>22-260</t>
+  </si>
+  <si>
+    <t>26-146</t>
+  </si>
+  <si>
+    <t>27-002</t>
+  </si>
+  <si>
+    <t>22-063</t>
+  </si>
+  <si>
+    <t>27-190</t>
+  </si>
+  <si>
+    <t>26-203</t>
+  </si>
+  <si>
+    <t>24-099</t>
+  </si>
+  <si>
+    <t>28-040</t>
+  </si>
+  <si>
+    <t>29-359</t>
+  </si>
+  <si>
+    <t>25-098</t>
+  </si>
+  <si>
+    <t>27-274</t>
+  </si>
+  <si>
+    <t>23-359</t>
+  </si>
+  <si>
+    <t>24-065</t>
+  </si>
+  <si>
+    <t>25-275</t>
+  </si>
+  <si>
+    <t>24-297</t>
+  </si>
+  <si>
+    <t>26-009</t>
+  </si>
+  <si>
+    <t>25-257</t>
+  </si>
+  <si>
+    <t>29-053</t>
+  </si>
+  <si>
+    <t>26-026</t>
+  </si>
+  <si>
+    <t>18-288</t>
+  </si>
+  <si>
+    <t>31-206</t>
+  </si>
+  <si>
+    <t>22-287</t>
+  </si>
+  <si>
+    <t>18-249</t>
+  </si>
+  <si>
+    <t>32-131</t>
+  </si>
+  <si>
+    <t>17-097</t>
+  </si>
+  <si>
+    <t>19-354</t>
+  </si>
+  <si>
+    <t>27-063</t>
+  </si>
+  <si>
+    <t>28-255</t>
+  </si>
+  <si>
+    <t>29-026</t>
+  </si>
+  <si>
+    <t>27-077</t>
+  </si>
+  <si>
+    <t>28-266</t>
+  </si>
+  <si>
+    <t>32-052</t>
+  </si>
+  <si>
+    <t>27-199</t>
+  </si>
+  <si>
+    <t>31-257</t>
+  </si>
+  <si>
+    <t>29-007</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
   <si>
     <t>1999</t>
-  </si>
-  <si>
-    <t>2082</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>904</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>1937</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>879</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1216</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>2067</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>Micky van de Ven</t>
-  </si>
-  <si>
-    <t>Sam Morsy</t>
-  </si>
-  <si>
-    <t>Rodrigo Bentancur</t>
-  </si>
-  <si>
-    <t>Dejan Kulusevski</t>
-  </si>
-  <si>
-    <t>Omari Hutchinson</t>
-  </si>
-  <si>
-    <t>Kalvin Phillips</t>
-  </si>
-  <si>
-    <t>Yves Bissouma</t>
-  </si>
-  <si>
-    <t>Brennan Johnson</t>
-  </si>
-  <si>
-    <t>James Maddison</t>
-  </si>
-  <si>
-    <t>Pedro Porro</t>
-  </si>
-  <si>
-    <t>Destiny Udogie</t>
-  </si>
-  <si>
-    <t>Harry Clarke</t>
-  </si>
-  <si>
-    <t>Liam Delap</t>
-  </si>
-  <si>
-    <t>Ali Al Hamadi</t>
-  </si>
-  <si>
-    <t>Jack Taylor</t>
-  </si>
-  <si>
-    <t>Pape Matar Sarr</t>
-  </si>
-  <si>
-    <t>Richarlison</t>
-  </si>
-  <si>
-    <t>Cristian Romero</t>
-  </si>
-  <si>
-    <t>Djed Spence</t>
-  </si>
-  <si>
-    <t>Guglielmo Vicario</t>
-  </si>
-  <si>
-    <t>Wes Burns</t>
-  </si>
-  <si>
-    <t>Jens Cajuste</t>
-  </si>
-  <si>
-    <t>Conor Chaplin</t>
-  </si>
-  <si>
-    <t>Jack Clarke</t>
-  </si>
-  <si>
-    <t>Leif Davis</t>
-  </si>
-  <si>
-    <t>Jacob Greaves</t>
-  </si>
-  <si>
-    <t>George Hirst</t>
-  </si>
-  <si>
-    <t>Arijanet Muric</t>
-  </si>
-  <si>
-    <t>Dara O'Shea</t>
-  </si>
-  <si>
-    <t>Sammie Szmodics</t>
-  </si>
-  <si>
-    <t>Axel Tuanzebe</t>
-  </si>
-  <si>
-    <t>Luke Woolfenden</t>
-  </si>
-  <si>
-    <t>Lucas Bergvall</t>
-  </si>
-  <si>
-    <t>Ben Davies</t>
-  </si>
-  <si>
-    <t>Radu Drăgușin</t>
-  </si>
-  <si>
-    <t>Archie Gray</t>
-  </si>
-  <si>
-    <t>Son Heung-min</t>
-  </si>
-  <si>
-    <t>Mikey Moore</t>
-  </si>
-  <si>
-    <t>Wilson Odobert</t>
-  </si>
-  <si>
-    <t>Dominic Solanke</t>
-  </si>
-  <si>
-    <t>Timo Werner</t>
-  </si>
-  <si>
-    <t>Cameron Burgess</t>
-  </si>
-  <si>
-    <t>George Edmundson</t>
-  </si>
-  <si>
-    <t>Marcus Harness</t>
-  </si>
-  <si>
-    <t>Ben Johnson</t>
-  </si>
-  <si>
-    <t>Massimo Luongo</t>
-  </si>
-  <si>
-    <t>Chiedozie Ogbene</t>
-  </si>
-  <si>
-    <t>Conor Townsend</t>
-  </si>
-  <si>
-    <t>Christian Walton</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>eg EGY</t>
-  </si>
-  <si>
-    <t>uy URU</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>eng ENG</t>
-  </si>
-  <si>
-    <t>ml MLI</t>
-  </si>
-  <si>
-    <t>wls WAL</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
-    <t>it ITA</t>
-  </si>
-  <si>
-    <t>iq IRQ</t>
-  </si>
-  <si>
-    <t>ie IRL</t>
-  </si>
-  <si>
-    <t>sn SEN</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>xk KVX</t>
-  </si>
-  <si>
-    <t>cd COD</t>
-  </si>
-  <si>
-    <t>ro ROU</t>
-  </si>
-  <si>
-    <t>kr KOR</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>de GER</t>
-  </si>
-  <si>
-    <t>au AUS</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
-    <t>eng Premier League</t>
-  </si>
-  <si>
-    <t>23-204</t>
-  </si>
-  <si>
-    <t>33-060</t>
-  </si>
-  <si>
-    <t>27-137</t>
-  </si>
-  <si>
-    <t>24-198</t>
-  </si>
-  <si>
-    <t>21-010</t>
-  </si>
-  <si>
-    <t>28-343</t>
-  </si>
-  <si>
-    <t>28-071</t>
-  </si>
-  <si>
-    <t>23-170</t>
-  </si>
-  <si>
-    <t>27-352</t>
-  </si>
-  <si>
-    <t>25-057</t>
-  </si>
-  <si>
-    <t>21-347</t>
-  </si>
-  <si>
-    <t>23-252</t>
-  </si>
-  <si>
-    <t>21-275</t>
-  </si>
-  <si>
-    <t>22-253</t>
-  </si>
-  <si>
-    <t>26-139</t>
-  </si>
-  <si>
-    <t>22-056</t>
-  </si>
-  <si>
-    <t>27-183</t>
-  </si>
-  <si>
-    <t>26-196</t>
-  </si>
-  <si>
-    <t>24-092</t>
-  </si>
-  <si>
-    <t>28-033</t>
-  </si>
-  <si>
-    <t>29-352</t>
-  </si>
-  <si>
-    <t>25-091</t>
-  </si>
-  <si>
-    <t>27-267</t>
-  </si>
-  <si>
-    <t>23-352</t>
-  </si>
-  <si>
-    <t>24-302</t>
-  </si>
-  <si>
-    <t>24-058</t>
-  </si>
-  <si>
-    <t>25-268</t>
-  </si>
-  <si>
-    <t>26-002</t>
-  </si>
-  <si>
-    <t>25-250</t>
-  </si>
-  <si>
-    <t>29-046</t>
-  </si>
-  <si>
-    <t>26-361</t>
-  </si>
-  <si>
-    <t>26-019</t>
-  </si>
-  <si>
-    <t>18-281</t>
-  </si>
-  <si>
-    <t>31-199</t>
-  </si>
-  <si>
-    <t>22-280</t>
-  </si>
-  <si>
-    <t>18-242</t>
-  </si>
-  <si>
-    <t>32-124</t>
-  </si>
-  <si>
-    <t>17-090</t>
-  </si>
-  <si>
-    <t>19-347</t>
-  </si>
-  <si>
-    <t>27-056</t>
-  </si>
-  <si>
-    <t>28-248</t>
-  </si>
-  <si>
-    <t>29-019</t>
-  </si>
-  <si>
-    <t>27-070</t>
-  </si>
-  <si>
-    <t>28-259</t>
-  </si>
-  <si>
-    <t>24-290</t>
-  </si>
-  <si>
-    <t>32-045</t>
-  </si>
-  <si>
-    <t>27-192</t>
-  </si>
-  <si>
-    <t>31-250</t>
-  </si>
-  <si>
-    <t>29-000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
   </si>
   <si>
     <t>2002</t>
@@ -3842,7 +3848,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="n">
-        <v>2151.0</v>
+        <v>243.0</v>
       </c>
       <c r="C2" t="s">
         <v>214</v>
@@ -3857,16 +3863,16 @@
         <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J2" t="n">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.0</v>
@@ -3878,43 +3884,43 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="X2" t="n">
         <v>8.0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Y2" t="n">
         <v>6.0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>50.0</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="3">
@@ -3922,7 +3928,7 @@
         <v>166</v>
       </c>
       <c r="B3" t="n">
-        <v>1439.0</v>
+        <v>2166.0</v>
       </c>
       <c r="C3" t="s">
         <v>215</v>
@@ -3934,19 +3940,19 @@
         <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J3" t="n">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="K3" t="n">
         <v>4.0</v>
@@ -3958,43 +3964,43 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="X3" t="n">
         <v>16.0</v>
       </c>
-      <c r="O3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>45.5</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
@@ -4002,7 +4008,7 @@
         <v>167</v>
       </c>
       <c r="B4" t="n">
-        <v>242.0</v>
+        <v>955.0</v>
       </c>
       <c r="C4" t="s">
         <v>216</v>
@@ -4011,70 +4017,70 @@
         <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J4" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R4" t="n">
         <v>5.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10.0</v>
       </c>
-      <c r="O4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.0</v>
-      </c>
       <c r="Z4" t="n">
-        <v>60.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="5">
@@ -4082,7 +4088,7 @@
         <v>168</v>
       </c>
       <c r="B5" t="n">
-        <v>1132.0</v>
+        <v>1449.0</v>
       </c>
       <c r="C5" t="s">
         <v>217</v>
@@ -4091,25 +4097,25 @@
         <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J5" t="n">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
@@ -4121,19 +4127,19 @@
         <v>18.0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>37.0</v>
+        <v>4.0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -4145,16 +4151,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>42.0</v>
+        <v>47.0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.3</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="6">
@@ -4162,7 +4168,7 @@
         <v>169</v>
       </c>
       <c r="B6" t="n">
-        <v>950.0</v>
+        <v>1138.0</v>
       </c>
       <c r="C6" t="s">
         <v>218</v>
@@ -4174,19 +4180,19 @@
         <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J6" t="n">
-        <v>8.7</v>
+        <v>9.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.0</v>
@@ -4198,43 +4204,43 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="O6" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="X6" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>4.0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>30.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="7">
@@ -4242,58 +4248,58 @@
         <v>170</v>
       </c>
       <c r="B7" t="n">
-        <v>1678.0</v>
+        <v>548.0</v>
       </c>
       <c r="C7" t="s">
         <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
         <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
         <v>3.0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
       <c r="O7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="S7" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -4305,16 +4311,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>35.0</v>
+        <v>19.0</v>
       </c>
       <c r="X7" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>40.0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="8">
@@ -4322,59 +4328,59 @@
         <v>171</v>
       </c>
       <c r="B8" t="n">
-        <v>268.0</v>
+        <v>1689.0</v>
       </c>
       <c r="C8" t="s">
         <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I8" t="s">
         <v>347</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>6.0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="O8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>6.0</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>9.0</v>
-      </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
@@ -4385,16 +4391,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>33.3</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
@@ -4402,31 +4408,31 @@
         <v>172</v>
       </c>
       <c r="B9" t="n">
-        <v>1009.0</v>
+        <v>269.0</v>
       </c>
       <c r="C9" t="s">
         <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J9" t="n">
-        <v>8.7</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.0</v>
@@ -4438,40 +4444,40 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X9" t="n">
         <v>2.0</v>
       </c>
-      <c r="S9" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z9" t="n">
         <v>50.0</v>
@@ -4482,31 +4488,31 @@
         <v>173</v>
       </c>
       <c r="B10" t="n">
-        <v>1246.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C10" t="s">
         <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
         <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J10" t="n">
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.0</v>
@@ -4518,22 +4524,22 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O10" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.0</v>
+        <v>19.0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -4545,16 +4551,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="X10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>71.4</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
@@ -4562,13 +4568,13 @@
         <v>174</v>
       </c>
       <c r="B11" t="n">
-        <v>1702.0</v>
+        <v>1254.0</v>
       </c>
       <c r="C11" t="s">
         <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
         <v>284</v>
@@ -4577,16 +4583,16 @@
         <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>7.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.0</v>
@@ -4598,22 +4604,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="P11" t="n">
         <v>1.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.0</v>
+        <v>54.0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -4625,16 +4631,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>49.0</v>
+        <v>27.0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>37.5</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="12">
@@ -4642,31 +4648,31 @@
         <v>175</v>
       </c>
       <c r="B12" t="n">
-        <v>2114.0</v>
+        <v>1713.0</v>
       </c>
       <c r="C12" t="s">
         <v>224</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J12" t="n">
-        <v>9.2</v>
+        <v>11.0</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -4678,19 +4684,19 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="O12" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="P12" t="n">
         <v>1.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.0</v>
+        <v>76.0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="S12" t="n">
         <v>17.0</v>
@@ -4705,16 +4711,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>43.0</v>
+        <v>56.0</v>
       </c>
       <c r="X12" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>37.5</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="13">
@@ -4722,79 +4728,79 @@
         <v>176</v>
       </c>
       <c r="B13" t="n">
-        <v>445.0</v>
+        <v>2129.0</v>
       </c>
       <c r="C13" t="s">
         <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I13" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="J13" t="n">
-        <v>1.1</v>
+        <v>10.2</v>
       </c>
       <c r="K13" t="n">
         <v>2.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>4.0</v>
+        <v>49.0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>100.0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="14">
@@ -4802,79 +4808,79 @@
         <v>177</v>
       </c>
       <c r="B14" t="n">
-        <v>546.0</v>
+        <v>446.0</v>
       </c>
       <c r="C14" t="s">
         <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J14" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
         <v>2.0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N14" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="O14" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R14" t="n">
         <v>1.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T14" t="n">
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>40.9</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="15">
@@ -4882,31 +4888,31 @@
         <v>178</v>
       </c>
       <c r="B15" t="n">
-        <v>892.0</v>
+        <v>534.0</v>
       </c>
       <c r="C15" t="s">
         <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
         <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>11.0</v>
       </c>
       <c r="K15" t="n">
         <v>2.0</v>
@@ -4918,43 +4924,43 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P15" t="n">
         <v>3.0</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V15" t="n">
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="X15" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>66.7</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="16">
@@ -4962,31 +4968,31 @@
         <v>179</v>
       </c>
       <c r="B16" t="n">
-        <v>2044.0</v>
+        <v>897.0</v>
       </c>
       <c r="C16" t="s">
         <v>228</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
         <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J16" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.0</v>
@@ -4998,43 +5004,43 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="O16" t="n">
         <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X16" t="n">
         <v>2.0</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y16" t="n">
         <v>1.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>75.0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="17">
@@ -5042,34 +5048,34 @@
         <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>1331.0</v>
+        <v>2058.0</v>
       </c>
       <c r="C17" t="s">
         <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -5078,43 +5084,43 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W17" t="n">
         <v>7.0</v>
       </c>
-      <c r="O17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="X17" t="n">
         <v>3.0</v>
       </c>
-      <c r="R17" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>8.0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>61.5</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="18">
@@ -5122,34 +5128,34 @@
         <v>181</v>
       </c>
       <c r="B18" t="n">
-        <v>1760.0</v>
+        <v>2124.0</v>
       </c>
       <c r="C18" t="s">
         <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J18" t="n">
-        <v>1.0</v>
+        <v>6.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -5158,22 +5164,22 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P18" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -5185,16 +5191,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>33.3</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="19">
@@ -5202,13 +5208,13 @@
         <v>182</v>
       </c>
       <c r="B19" t="n">
-        <v>1792.0</v>
+        <v>1339.0</v>
       </c>
       <c r="C19" t="s">
         <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
         <v>284</v>
@@ -5217,16 +5223,16 @@
         <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J19" t="n">
-        <v>9.7</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -5238,22 +5244,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O19" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="S19" t="n">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -5265,16 +5271,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.0</v>
+        <v>30.0</v>
       </c>
       <c r="X19" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>52.3</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="20">
@@ -5282,31 +5288,31 @@
         <v>183</v>
       </c>
       <c r="B20" t="n">
-        <v>1982.0</v>
+        <v>1771.0</v>
       </c>
       <c r="C20" t="s">
         <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -5321,40 +5327,40 @@
         <v>1.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P20" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>2.0</v>
       </c>
-      <c r="R20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z20" t="e">
-        <v>#N/A</v>
+      <c r="Z20" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="21">
@@ -5362,31 +5368,31 @@
         <v>184</v>
       </c>
       <c r="B21" t="n">
-        <v>2161.0</v>
+        <v>1803.0</v>
       </c>
       <c r="C21" t="s">
         <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="J21" t="n">
-        <v>10.0</v>
+        <v>10.7</v>
       </c>
       <c r="K21" t="n">
         <v>1.0</v>
@@ -5398,22 +5404,22 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -5425,16 +5431,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>18.0</v>
+        <v>62.0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>100.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
@@ -5442,31 +5448,31 @@
         <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>329.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C22" t="s">
         <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="K22" t="n">
         <v>1.0</v>
@@ -5478,43 +5484,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.0</v>
       </c>
-      <c r="O22" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>16.0</v>
-      </c>
       <c r="R22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.0</v>
       </c>
-      <c r="S22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>21.0</v>
-      </c>
       <c r="X22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>8.3</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
@@ -5522,31 +5528,31 @@
         <v>186</v>
       </c>
       <c r="B23" t="n">
-        <v>342.0</v>
+        <v>2176.0</v>
       </c>
       <c r="C23" t="s">
         <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="J23" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="K23" t="n">
         <v>1.0</v>
@@ -5558,22 +5564,22 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" t="n">
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
@@ -5585,16 +5591,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
@@ -5602,31 +5608,31 @@
         <v>187</v>
       </c>
       <c r="B24" t="n">
-        <v>413.0</v>
+        <v>330.0</v>
       </c>
       <c r="C24" t="s">
         <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I24" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -5638,23 +5644,23 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O24" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S24" t="n">
         <v>5.0</v>
       </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.0</v>
-      </c>
       <c r="T24" t="n">
         <v>0.0</v>
       </c>
@@ -5665,16 +5671,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="25">
@@ -5682,7 +5688,7 @@
         <v>188</v>
       </c>
       <c r="B25" t="n">
-        <v>446.0</v>
+        <v>343.0</v>
       </c>
       <c r="C25" t="s">
         <v>237</v>
@@ -5691,22 +5697,22 @@
         <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
         <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I25" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.0</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -5721,19 +5727,19 @@
         <v>5.0</v>
       </c>
       <c r="O25" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="R25" t="n">
         <v>2.0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -5745,16 +5751,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -5762,31 +5768,31 @@
         <v>189</v>
       </c>
       <c r="B26" t="n">
-        <v>532.0</v>
+        <v>414.0</v>
       </c>
       <c r="C26" t="s">
         <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F26" t="s">
         <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J26" t="n">
-        <v>10.0</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
         <v>1.0</v>
@@ -5798,43 +5804,43 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W26" t="n">
         <v>8.0</v>
       </c>
-      <c r="O26" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>47.0</v>
-      </c>
       <c r="X26" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>53.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -5842,55 +5848,55 @@
         <v>190</v>
       </c>
       <c r="B27" t="n">
-        <v>833.0</v>
+        <v>447.0</v>
       </c>
       <c r="C27" t="s">
         <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F27" t="s">
         <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
         <v>7.0</v>
       </c>
-      <c r="K27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.0</v>
-      </c>
       <c r="O27" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="S27" t="n">
         <v>6.0</v>
@@ -5905,16 +5911,16 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="X27" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>60.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="28">
@@ -5922,31 +5928,31 @@
         <v>191</v>
       </c>
       <c r="B28" t="n">
-        <v>927.0</v>
+        <v>838.0</v>
       </c>
       <c r="C28" t="s">
         <v>240</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
         <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="J28" t="n">
-        <v>1.8</v>
+        <v>7.0</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -5961,19 +5967,19 @@
         <v>3.0</v>
       </c>
       <c r="O28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="P28" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -5985,16 +5991,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="X28" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>53.3</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="29">
@@ -6002,31 +6008,31 @@
         <v>192</v>
       </c>
       <c r="B29" t="n">
-        <v>1465.0</v>
+        <v>932.0</v>
       </c>
       <c r="C29" t="s">
         <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F29" t="s">
         <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I29" t="s">
         <v>349</v>
       </c>
       <c r="J29" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -6038,22 +6044,22 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R29" t="n">
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -6065,16 +6071,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>83.3</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="30">
@@ -6082,31 +6088,31 @@
         <v>193</v>
       </c>
       <c r="B30" t="n">
-        <v>1549.0</v>
+        <v>1013.0</v>
       </c>
       <c r="C30" t="s">
         <v>242</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F30" t="s">
         <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I30" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="J30" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -6118,22 +6124,22 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="O30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P30" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="S30" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -6145,16 +6151,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="X30" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>61.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
@@ -6162,31 +6168,31 @@
         <v>194</v>
       </c>
       <c r="B31" t="n">
-        <v>2026.0</v>
+        <v>1475.0</v>
       </c>
       <c r="C31" t="s">
         <v>243</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F31" t="s">
         <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I31" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="J31" t="n">
-        <v>5.2</v>
+        <v>10.0</v>
       </c>
       <c r="K31" t="n">
         <v>1.0</v>
@@ -6198,43 +6204,43 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="O31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X31" t="n">
         <v>6.0</v>
       </c>
-      <c r="P31" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Y31" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>42.9</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="32">
@@ -6242,31 +6248,31 @@
         <v>195</v>
       </c>
       <c r="B32" t="n">
-        <v>2109.0</v>
+        <v>1560.0</v>
       </c>
       <c r="C32" t="s">
         <v>244</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
         <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I32" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J32" t="n">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -6281,19 +6287,19 @@
         <v>3.0</v>
       </c>
       <c r="O32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.0</v>
       </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.0</v>
-      </c>
       <c r="R32" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="T32" t="n">
         <v>0.0</v>
@@ -6305,16 +6311,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>53.3</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="33">
@@ -6322,31 +6328,31 @@
         <v>196</v>
       </c>
       <c r="B33" t="n">
-        <v>2231.0</v>
+        <v>2040.0</v>
       </c>
       <c r="C33" t="s">
         <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>6.0</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -6358,22 +6364,22 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -6385,16 +6391,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="X33" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y33" t="n">
         <v>5.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>50.0</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="34">
@@ -6402,34 +6408,34 @@
         <v>197</v>
       </c>
       <c r="B34" t="n">
-        <v>247.0</v>
+        <v>2246.0</v>
       </c>
       <c r="C34" t="s">
         <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I34" t="s">
         <v>351</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -6447,34 +6453,34 @@
         <v>0.0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X34" t="n">
         <v>5.0</v>
       </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
         <v>5.0</v>
       </c>
-      <c r="X34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z34" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="35">
@@ -6482,31 +6488,31 @@
         <v>198</v>
       </c>
       <c r="B35" t="n">
-        <v>530.0</v>
+        <v>248.0</v>
       </c>
       <c r="C35" t="s">
         <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F35" t="s">
         <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -6518,22 +6524,22 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
         <v>0.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T35" t="n">
         <v>0.0</v>
@@ -6545,16 +6551,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="X35" t="n">
         <v>1.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="36">
@@ -6562,31 +6568,31 @@
         <v>199</v>
       </c>
       <c r="B36" t="n">
-        <v>622.0</v>
+        <v>532.0</v>
       </c>
       <c r="C36" t="s">
         <v>248</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
         <v>94</v>
       </c>
       <c r="G36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="J36" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -6598,10 +6604,10 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" t="n">
         <v>0.0</v>
@@ -6610,31 +6616,31 @@
         <v>0.0</v>
       </c>
       <c r="R36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.0</v>
       </c>
-      <c r="S36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>5.0</v>
-      </c>
       <c r="X36" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="37">
@@ -6642,31 +6648,31 @@
         <v>200</v>
       </c>
       <c r="B37" t="n">
-        <v>831.0</v>
+        <v>625.0</v>
       </c>
       <c r="C37" t="s">
         <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -6678,10 +6684,10 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
@@ -6690,10 +6696,10 @@
         <v>0.0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -6705,16 +6711,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z37" t="e">
-        <v>#N/A</v>
+        <v>6.0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="38">
@@ -6722,31 +6728,31 @@
         <v>201</v>
       </c>
       <c r="B38" t="n">
-        <v>922.0</v>
+        <v>836.0</v>
       </c>
       <c r="C38" t="s">
         <v>250</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F38" t="s">
         <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H38" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I38" t="s">
         <v>353</v>
       </c>
       <c r="J38" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -6758,22 +6764,22 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O38" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -6785,16 +6791,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>14.3</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39">
@@ -6802,13 +6808,13 @@
         <v>202</v>
       </c>
       <c r="B39" t="n">
-        <v>1427.0</v>
+        <v>927.0</v>
       </c>
       <c r="C39" t="s">
         <v>251</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
         <v>287</v>
@@ -6817,16 +6823,16 @@
         <v>94</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -6838,22 +6844,22 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
@@ -6865,16 +6871,16 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
       <c r="X39" t="n">
         <v>1.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>50.0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="40">
@@ -6882,13 +6888,13 @@
         <v>203</v>
       </c>
       <c r="B40" t="n">
-        <v>1554.0</v>
+        <v>1437.0</v>
       </c>
       <c r="C40" t="s">
         <v>252</v>
       </c>
       <c r="D40" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
         <v>287</v>
@@ -6897,16 +6903,16 @@
         <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J40" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="K40" t="n">
         <v>0.0</v>
@@ -6921,19 +6927,19 @@
         <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P40" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
@@ -6945,16 +6951,16 @@
         <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="41">
@@ -6962,13 +6968,13 @@
         <v>204</v>
       </c>
       <c r="B41" t="n">
-        <v>1964.0</v>
+        <v>1565.0</v>
       </c>
       <c r="C41" t="s">
         <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E41" t="s">
         <v>287</v>
@@ -6977,16 +6983,16 @@
         <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="J41" t="n">
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="K41" t="n">
         <v>0.0</v>
@@ -6998,23 +7004,23 @@
         <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="P41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S41" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>6.0</v>
-      </c>
       <c r="T41" t="n">
         <v>0.0</v>
       </c>
@@ -7025,16 +7031,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="X41" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>56.7</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="42">
@@ -7042,31 +7048,31 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>2206.0</v>
+        <v>1978.0</v>
       </c>
       <c r="C42" t="s">
         <v>254</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
         <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J42" t="n">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -7078,22 +7084,22 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="O42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="P42" t="n">
         <v>2.0</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.0</v>
-      </c>
       <c r="Q42" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S42" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="T42" t="n">
         <v>0.0</v>
@@ -7105,16 +7111,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="43">
@@ -7122,28 +7128,28 @@
         <v>206</v>
       </c>
       <c r="B43" t="n">
-        <v>325.0</v>
+        <v>2221.0</v>
       </c>
       <c r="C43" t="s">
         <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J43" t="n">
         <v>3.0</v>
@@ -7158,19 +7164,19 @@
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S43" t="n">
         <v>2.0</v>
@@ -7185,16 +7191,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="X43" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>72.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -7202,31 +7208,31 @@
         <v>207</v>
       </c>
       <c r="B44" t="n">
-        <v>642.0</v>
+        <v>326.0</v>
       </c>
       <c r="C44" t="s">
         <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F44" t="s">
         <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H44" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -7238,10 +7244,10 @@
         <v>0.0</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P44" t="n">
         <v>0.0</v>
@@ -7250,10 +7256,10 @@
         <v>0.0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
@@ -7265,16 +7271,16 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z44" t="e">
-        <v>#N/A</v>
+        <v>5.0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="45">
@@ -7282,13 +7288,13 @@
         <v>208</v>
       </c>
       <c r="B45" t="n">
-        <v>897.0</v>
+        <v>646.0</v>
       </c>
       <c r="C45" t="s">
         <v>257</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E45" t="s">
         <v>285</v>
@@ -7297,16 +7303,16 @@
         <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -7324,7 +7330,7 @@
         <v>0.0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q45" t="n">
         <v>0.0</v>
@@ -7345,7 +7351,7 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="X45" t="n">
         <v>0.0</v>
@@ -7362,13 +7368,13 @@
         <v>209</v>
       </c>
       <c r="B46" t="n">
-        <v>1008.0</v>
+        <v>902.0</v>
       </c>
       <c r="C46" t="s">
         <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s">
         <v>284</v>
@@ -7377,16 +7383,16 @@
         <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -7398,22 +7404,22 @@
         <v>0.0</v>
       </c>
       <c r="N46" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="S46" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T46" t="n">
         <v>0.0</v>
@@ -7425,16 +7431,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>62.5</v>
+        <v>0.0</v>
+      </c>
+      <c r="Z46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
@@ -7442,7 +7448,7 @@
         <v>210</v>
       </c>
       <c r="B47" t="n">
-        <v>1234.0</v>
+        <v>1242.0</v>
       </c>
       <c r="C47" t="s">
         <v>259</v>
@@ -7451,19 +7457,19 @@
         <v>283</v>
       </c>
       <c r="E47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J47" t="n">
         <v>1.6</v>
@@ -7481,7 +7487,7 @@
         <v>1.0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P47" t="n">
         <v>0.0</v>
@@ -7522,7 +7528,7 @@
         <v>211</v>
       </c>
       <c r="B48" t="n">
-        <v>1557.0</v>
+        <v>1568.0</v>
       </c>
       <c r="C48" t="s">
         <v>260</v>
@@ -7537,13 +7543,13 @@
         <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J48" t="n">
         <v>2.6</v>
@@ -7602,28 +7608,28 @@
         <v>212</v>
       </c>
       <c r="B49" t="n">
-        <v>2094.0</v>
+        <v>2109.0</v>
       </c>
       <c r="C49" t="s">
         <v>261</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F49" t="s">
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I49" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -7682,13 +7688,13 @@
         <v>213</v>
       </c>
       <c r="B50" t="n">
-        <v>2189.0</v>
+        <v>2204.0</v>
       </c>
       <c r="C50" t="s">
         <v>262</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
         <v>288</v>
@@ -7697,13 +7703,13 @@
         <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J50" t="n">
         <v>1.0</v>
@@ -7797,93 +7803,93 @@
         <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M1" t="s">
         <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="S1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="U1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="V1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="W1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="X1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Y1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AA1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AC1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AD1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AE1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AH1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B2" t="n">
-        <v>546.0</v>
+        <v>548.0</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>287</v>
@@ -7892,99 +7898,99 @@
         <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AA2" t="n">
         <v>9.0</v>
       </c>
-      <c r="L2" t="n">
-        <v>706.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AB2" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.64</v>
+        <v>0.81</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" t="n">
-        <v>1009.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
         <v>269</v>
@@ -7996,25 +8002,25 @@
         <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K3" t="n">
         <v>10.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>9.0</v>
-      </c>
       <c r="L3" t="n">
-        <v>783.0</v>
+        <v>866.0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.7</v>
+        <v>9.6</v>
       </c>
       <c r="N3" t="n">
         <v>4.0</v>
@@ -8041,57 +8047,57 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="W3" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="X3" t="n">
         <v>0.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.0</v>
+        <v>99.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AD3" t="n">
         <v>0.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B4" t="n">
-        <v>1964.0</v>
+        <v>1978.0</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
         <v>287</v>
@@ -8100,25 +8106,25 @@
         <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L4" t="n">
-        <v>707.0</v>
+        <v>797.0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="N4" t="n">
         <v>4.0</v>
@@ -8145,54 +8151,54 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>0.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>35.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.64</v>
+        <v>0.56</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.64</v>
+        <v>0.56</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" t="n">
-        <v>922.0</v>
+        <v>927.0</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>280</v>
@@ -8204,25 +8210,25 @@
         <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L5" t="n">
-        <v>574.0</v>
+        <v>664.0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="N5" t="n">
         <v>3.0</v>
@@ -8249,84 +8255,84 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.2</v>
+        <v>5.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.0</v>
+        <v>107.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.94</v>
+        <v>0.81</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" t="n">
-        <v>1246.0</v>
+        <v>1254.0</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J6" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K6" t="n">
         <v>9.0</v>
       </c>
       <c r="L6" t="n">
-        <v>678.0</v>
+        <v>685.0</v>
       </c>
       <c r="M6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="N6" t="n">
         <v>3.0</v>
@@ -8368,81 +8374,81 @@
         <v>16.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="AB6" t="n">
         <v>44.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B7" t="n">
-        <v>268.0</v>
+        <v>2040.0</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>347</v>
       </c>
       <c r="J7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K7" t="n">
         <v>7.0</v>
       </c>
-      <c r="K7" t="n">
-        <v>4.0</v>
-      </c>
       <c r="L7" t="n">
-        <v>394.0</v>
+        <v>540.0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.4</v>
+        <v>6.0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="O7" t="n">
         <v>0.0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R7" t="n">
         <v>0.0</v>
@@ -8451,99 +8457,99 @@
         <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.46</v>
-      </c>
       <c r="AD7" t="n">
         <v>0.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B8" t="n">
-        <v>1132.0</v>
+        <v>269.0</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J8" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="L8" t="n">
-        <v>769.0</v>
+        <v>401.0</v>
       </c>
       <c r="M8" t="n">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
         <v>2.0</v>
       </c>
       <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.0</v>
       </c>
       <c r="Q8" t="n">
         <v>2.0</v>
@@ -8555,99 +8561,99 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X8" t="n">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.0</v>
+        <v>0.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.23</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B9" t="n">
-        <v>2026.0</v>
+        <v>1138.0</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
         <v>346</v>
       </c>
       <c r="J9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K9" t="n">
         <v>10.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>6.0</v>
-      </c>
       <c r="L9" t="n">
-        <v>470.0</v>
+        <v>859.0</v>
       </c>
       <c r="M9" t="n">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q9" t="n">
         <v>2.0</v>
@@ -8659,63 +8665,63 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>2.0</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>2.0</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.0</v>
+        <v>43.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>27.0</v>
+        <v>76.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.39</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B10" t="n">
-        <v>1702.0</v>
+        <v>243.0</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
         <v>284</v>
@@ -8724,25 +8730,25 @@
         <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="J10" t="n">
         <v>10.0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="L10" t="n">
-        <v>896.0</v>
+        <v>535.0</v>
       </c>
       <c r="M10" t="n">
-        <v>10.0</v>
+        <v>5.9</v>
       </c>
       <c r="N10" t="n">
         <v>1.0</v>
@@ -8763,7 +8769,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -8775,87 +8781,87 @@
         <v>0.7</v>
       </c>
       <c r="X10" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>38.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AD10" t="n">
         <v>0.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B11" t="n">
-        <v>1792.0</v>
+        <v>1713.0</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
         <v>349</v>
       </c>
       <c r="J11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L11" t="n">
-        <v>870.0</v>
+        <v>986.0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.7</v>
+        <v>11.0</v>
       </c>
       <c r="N11" t="n">
         <v>1.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q11" t="n">
         <v>1.0</v>
@@ -8867,298 +8873,298 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.0</v>
+        <v>0.7</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.4</v>
+        <v>2.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>42.0</v>
+        <v>66.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" t="n">
-        <v>532.0</v>
+        <v>1803.0</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H12" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z12" t="n">
         <v>10.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="AA12" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>2.0</v>
       </c>
-      <c r="P12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>43.0</v>
-      </c>
       <c r="AC12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH12" t="n">
         <v>0.1</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B13" t="n">
-        <v>927.0</v>
+        <v>534.0</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H13" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>346</v>
       </c>
       <c r="J13" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="L13" t="n">
-        <v>159.0</v>
+        <v>990.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.8</v>
+        <v>11.0</v>
       </c>
       <c r="N13" t="n">
         <v>1.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.0</v>
+        <v>2.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.0</v>
+        <v>44.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.13</v>
+        <v>0.27</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.13</v>
+        <v>0.27</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.43</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B14" t="n">
-        <v>1439.0</v>
+        <v>932.0</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H14" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="I14" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="L14" t="n">
-        <v>803.0</v>
+        <v>180.0</v>
       </c>
       <c r="M14" t="n">
-        <v>8.9</v>
+        <v>2.0</v>
       </c>
       <c r="N14" t="n">
         <v>1.0</v>
@@ -9179,102 +9185,102 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="X14" t="n">
         <v>0.3</v>
       </c>
       <c r="Y14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AD14" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.22</v>
+        <v>1.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.22</v>
+        <v>1.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.02</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="n">
-        <v>242.0</v>
+        <v>1449.0</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="L15" t="n">
-        <v>452.0</v>
+        <v>893.0</v>
       </c>
       <c r="M15" t="n">
-        <v>5.0</v>
+        <v>9.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R15" t="n">
         <v>0.0</v>
@@ -9283,19 +9289,19 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y15" t="n">
         <v>0.5</v>
@@ -9304,42 +9310,42 @@
         <v>4.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="n">
-        <v>247.0</v>
+        <v>248.0</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
         <v>286</v>
@@ -9348,13 +9354,13 @@
         <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J16" t="n">
         <v>5.0</v>
@@ -9434,31 +9440,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" t="n">
-        <v>530.0</v>
+        <v>532.0</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
         <v>269</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J17" t="n">
         <v>1.0</v>
@@ -9538,43 +9544,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="n">
-        <v>622.0</v>
+        <v>625.0</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
         <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
         <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.0</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.0</v>
-      </c>
       <c r="L18" t="n">
-        <v>190.0</v>
+        <v>280.0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -9613,10 +9619,10 @@
         <v>0.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -9642,31 +9648,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="n">
-        <v>831.0</v>
+        <v>836.0</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I19" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J19" t="n">
         <v>5.0</v>
@@ -9746,43 +9752,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" t="n">
-        <v>1331.0</v>
+        <v>1339.0</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J20" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L20" t="n">
-        <v>380.0</v>
+        <v>445.0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -9815,51 +9821,51 @@
         <v>0.7</v>
       </c>
       <c r="X20" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="AF20" t="n">
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="n">
-        <v>1427.0</v>
+        <v>1437.0</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E21" t="s">
         <v>287</v>
@@ -9868,13 +9874,13 @@
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J21" t="n">
         <v>4.0</v>
@@ -9954,13 +9960,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="n">
-        <v>1554.0</v>
+        <v>1565.0</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
         <v>281</v>
@@ -9972,13 +9978,13 @@
         <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J22" t="n">
         <v>3.0</v>
@@ -10058,16 +10064,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B23" t="n">
-        <v>1760.0</v>
+        <v>1771.0</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E23" t="s">
         <v>287</v>
@@ -10076,13 +10082,13 @@
         <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J23" t="n">
         <v>5.0</v>
@@ -10162,31 +10168,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B24" t="n">
-        <v>1982.0</v>
+        <v>1996.0</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
         <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I24" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J24" t="n">
         <v>3.0</v>
@@ -10266,43 +10272,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" t="n">
-        <v>2114.0</v>
+        <v>2129.0</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
         <v>271</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H25" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K25" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L25" t="n">
-        <v>825.0</v>
+        <v>915.0</v>
       </c>
       <c r="M25" t="n">
-        <v>9.2</v>
+        <v>10.2</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -10335,34 +10341,34 @@
         <v>0.3</v>
       </c>
       <c r="X25" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>55.0</v>
+        <v>64.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>53.0</v>
+        <v>60.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF25" t="n">
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH25" t="n">
         <v>0.03</v>
@@ -10370,31 +10376,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="n">
-        <v>2151.0</v>
+        <v>2166.0</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
         <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J26" t="n">
         <v>8.0</v>
@@ -10474,13 +10480,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B27" t="n">
-        <v>2161.0</v>
+        <v>2176.0</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
@@ -10492,25 +10498,25 @@
         <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H27" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J27" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K27" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L27" t="n">
-        <v>900.0</v>
+        <v>990.0</v>
       </c>
       <c r="M27" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -10578,43 +10584,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" t="n">
-        <v>2206.0</v>
+        <v>2221.0</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
         <v>282</v>
       </c>
       <c r="E28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
       </c>
       <c r="L28" t="n">
-        <v>244.0</v>
+        <v>269.0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.7</v>
+        <v>3.0</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -10641,84 +10647,84 @@
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="W28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="X28" t="n">
         <v>0.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="AF28" t="n">
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" t="n">
-        <v>325.0</v>
+        <v>326.0</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
         <v>283</v>
       </c>
       <c r="E29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
         <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L29" t="n">
-        <v>270.0</v>
+        <v>360.0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -10745,22 +10751,22 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X29" t="n">
         <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Z29" t="n">
         <v>2.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB29" t="n">
         <v>1.0</v>
@@ -10781,18 +10787,18 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B30" t="n">
-        <v>329.0</v>
+        <v>330.0</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
         <v>269</v>
@@ -10804,13 +10810,13 @@
         <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H30" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J30" t="n">
         <v>8.0</v>
@@ -10890,43 +10896,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="n">
-        <v>342.0</v>
+        <v>343.0</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F31" t="s">
         <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H31" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L31" t="n">
-        <v>179.0</v>
+        <v>268.0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -10965,13 +10971,13 @@
         <v>0.1</v>
       </c>
       <c r="Z31" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AB31" t="n">
         <v>3.0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
@@ -10994,16 +11000,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B32" t="n">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -11012,13 +11018,13 @@
         <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H32" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J32" t="n">
         <v>9.0</v>
@@ -11098,31 +11104,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" t="n">
-        <v>445.0</v>
+        <v>446.0</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
         <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J33" t="n">
         <v>2.0</v>
@@ -11202,16 +11208,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B34" t="n">
-        <v>446.0</v>
+        <v>447.0</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
         <v>287</v>
@@ -11220,25 +11226,25 @@
         <v>97</v>
       </c>
       <c r="G34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H34" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J34" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K34" t="n">
         <v>3.0</v>
       </c>
       <c r="L34" t="n">
-        <v>338.0</v>
+        <v>358.0</v>
       </c>
       <c r="M34" t="n">
-        <v>3.8</v>
+        <v>4.0</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -11265,10 +11271,10 @@
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X34" t="n">
         <v>0.8</v>
@@ -11283,22 +11289,22 @@
         <v>8.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AF34" t="n">
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AH34" t="n">
         <v>0.14</v>
@@ -11306,31 +11312,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B35" t="n">
-        <v>642.0</v>
+        <v>646.0</v>
       </c>
       <c r="C35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
       </c>
       <c r="G35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H35" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J35" t="n">
         <v>1.0</v>
@@ -11410,31 +11416,31 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" t="n">
-        <v>833.0</v>
+        <v>838.0</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J36" t="n">
         <v>7.0</v>
@@ -11514,13 +11520,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B37" t="n">
-        <v>892.0</v>
+        <v>897.0</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D37" t="s">
         <v>272</v>
@@ -11532,13 +11538,13 @@
         <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J37" t="n">
         <v>3.0</v>
@@ -11618,31 +11624,31 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B38" t="n">
-        <v>897.0</v>
+        <v>902.0</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I38" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J38" t="n">
         <v>2.0</v>
@@ -11722,16 +11728,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" t="n">
-        <v>950.0</v>
+        <v>955.0</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E39" t="s">
         <v>286</v>
@@ -11740,25 +11746,25 @@
         <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J39" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K39" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L39" t="n">
-        <v>784.0</v>
+        <v>874.0</v>
       </c>
       <c r="M39" t="n">
-        <v>8.7</v>
+        <v>9.7</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -11779,46 +11785,46 @@
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U39" t="n">
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="W39" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X39" t="n">
         <v>1.3</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="AB39" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="AC39" t="n">
         <v>0.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AF39" t="n">
         <v>0.0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AH39" t="n">
         <v>0.07</v>
@@ -11826,43 +11832,43 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B40" t="n">
-        <v>1008.0</v>
+        <v>1013.0</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="I40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="L40" t="n">
-        <v>313.0</v>
+        <v>403.0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -11883,7 +11889,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
@@ -11904,25 +11910,25 @@
         <v>6.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="AH40" t="n">
         <v>0.01</v>
@@ -11933,7 +11939,7 @@
         <v>210</v>
       </c>
       <c r="B41" t="n">
-        <v>1234.0</v>
+        <v>1242.0</v>
       </c>
       <c r="C41" t="s">
         <v>259</v>
@@ -11942,28 +11948,28 @@
         <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F41" t="s">
         <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K41" t="n">
         <v>2.0</v>
       </c>
       <c r="L41" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="M41" t="n">
         <v>1.6</v>
@@ -12034,16 +12040,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B42" t="n">
-        <v>1465.0</v>
+        <v>1475.0</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E42" t="s">
         <v>288</v>
@@ -12052,25 +12058,25 @@
         <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J42" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K42" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L42" t="n">
-        <v>810.0</v>
+        <v>900.0</v>
       </c>
       <c r="M42" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -12138,43 +12144,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B43" t="n">
-        <v>1549.0</v>
+        <v>1560.0</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D43" t="s">
         <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
         <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H43" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="J43" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L43" t="n">
-        <v>602.0</v>
+        <v>692.0</v>
       </c>
       <c r="M43" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -12245,7 +12251,7 @@
         <v>211</v>
       </c>
       <c r="B44" t="n">
-        <v>1557.0</v>
+        <v>1568.0</v>
       </c>
       <c r="C44" t="s">
         <v>260</v>
@@ -12260,13 +12266,13 @@
         <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J44" t="n">
         <v>5.0</v>
@@ -12346,31 +12352,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45" t="n">
-        <v>1678.0</v>
+        <v>1689.0</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J45" t="n">
         <v>7.0</v>
@@ -12450,31 +12456,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" t="n">
-        <v>2044.0</v>
+        <v>2058.0</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
         <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F46" t="s">
         <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J46" t="n">
         <v>6.0</v>
@@ -12557,28 +12563,28 @@
         <v>212</v>
       </c>
       <c r="B47" t="n">
-        <v>2094.0</v>
+        <v>2109.0</v>
       </c>
       <c r="C47" t="s">
         <v>261</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
         <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J47" t="n">
         <v>1.0</v>
@@ -12658,43 +12664,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B48" t="n">
-        <v>2109.0</v>
+        <v>2124.0</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
         <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="I48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J48" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K48" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L48" t="n">
-        <v>512.0</v>
+        <v>602.0</v>
       </c>
       <c r="M48" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -12715,7 +12721,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U48" t="n">
         <v>0.0</v>
@@ -12733,7 +12739,7 @@
         <v>0.4</v>
       </c>
       <c r="Z48" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA48" t="n">
         <v>16.0</v>
@@ -12765,13 +12771,13 @@
         <v>213</v>
       </c>
       <c r="B49" t="n">
-        <v>2189.0</v>
+        <v>2204.0</v>
       </c>
       <c r="C49" t="s">
         <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
         <v>288</v>
@@ -12780,13 +12786,13 @@
         <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I49" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J49" t="n">
         <v>1.0</v>
@@ -12866,31 +12872,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" t="n">
-        <v>2231.0</v>
+        <v>2246.0</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
         <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H50" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J50" t="n">
         <v>5.0</v>
